--- a/DatabaseDesign.xlsx
+++ b/DatabaseDesign.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BespokeClothing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BespokeClothing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="User Master" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="147">
   <si>
     <t>Field</t>
   </si>
@@ -84,9 +84,6 @@
     <t>tblRoles</t>
   </si>
   <si>
-    <t>RoleID(PK)</t>
-  </si>
-  <si>
     <t>IsActive</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>tblCommunicationTypes</t>
   </si>
   <si>
-    <t>CommunicationTypeID(PK)</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>tblProducts</t>
   </si>
   <si>
-    <t>ProductID(PK)</t>
-  </si>
-  <si>
     <t>Float(4,2)</t>
   </si>
   <si>
@@ -189,9 +180,6 @@
     <t>ParentOrganisationID(FK)</t>
   </si>
   <si>
-    <t>OrganisationID(PK)</t>
-  </si>
-  <si>
     <t>ZipCode</t>
   </si>
   <si>
@@ -240,9 +228,6 @@
     <t>IsRequired</t>
   </si>
   <si>
-    <t>CodeID(PK)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Primary Key </t>
   </si>
   <si>
@@ -273,9 +258,6 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>tblSubscriptions</t>
-  </si>
-  <si>
     <t>Code Value</t>
   </si>
   <si>
@@ -291,18 +273,9 @@
     <t>StatusId(FK)</t>
   </si>
   <si>
-    <t>SubscriptionID(FK)</t>
-  </si>
-  <si>
     <t>tblOrganisationSubscriptions</t>
   </si>
   <si>
-    <t>OrganisationSubscriptionID(PK)</t>
-  </si>
-  <si>
-    <t>OrganisationSubscriptionHistoryID(PK)</t>
-  </si>
-  <si>
     <t>tblSubscriptionTypes</t>
   </si>
   <si>
@@ -366,15 +339,6 @@
     <t>Assistant Tailor</t>
   </si>
   <si>
-    <t>tblUserOrganisation</t>
-  </si>
-  <si>
-    <t>UserID(PK, FK)</t>
-  </si>
-  <si>
-    <t>OrganisationID(PK, FK)</t>
-  </si>
-  <si>
     <t>ParentId(FK)</t>
   </si>
   <si>
@@ -447,18 +411,9 @@
     <t>tblProductDefaultValues</t>
   </si>
   <si>
-    <t>ProductDefaultValue(PK)</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
     <t>float(3,2)</t>
   </si>
   <si>
-    <t>ProductPriceSettingID(PK)</t>
-  </si>
-  <si>
     <t>tblOrders</t>
   </si>
   <si>
@@ -480,9 +435,6 @@
     <t>Total Price</t>
   </si>
   <si>
-    <t>Final Delivery Date</t>
-  </si>
-  <si>
     <t>tblOrderItems</t>
   </si>
   <si>
@@ -493,12 +445,33 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>ID(PK)</t>
+  </si>
+  <si>
+    <t>tblUserOrganisations</t>
+  </si>
+  <si>
+    <t>UserID( FK)</t>
+  </si>
+  <si>
+    <t>SizeName</t>
+  </si>
+  <si>
+    <t>SubscriptionTypeID(FK)</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>DeliveryDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -939,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:G245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="G226" sqref="G226"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A241" sqref="A241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +956,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -996,7 +969,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -1014,7 +987,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="4" t="s">
@@ -1024,10 +997,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="4"/>
@@ -1035,10 +1008,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="4"/>
@@ -1049,7 +1022,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>6</v>
@@ -1059,7 +1032,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>5</v>
@@ -1068,13 +1041,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>5</v>
@@ -1083,13 +1056,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>5</v>
@@ -1098,16 +1071,16 @@
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="4"/>
@@ -1115,10 +1088,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="4"/>
@@ -1129,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>6</v>
@@ -1139,10 +1112,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="4"/>
@@ -1153,7 +1126,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="4"/>
@@ -1164,7 +1137,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="4"/>
@@ -1172,10 +1145,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
@@ -1183,10 +1156,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="4"/>
@@ -1197,7 +1170,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="4" t="s">
@@ -1210,7 +1183,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="4"/>
@@ -1218,10 +1191,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="4" t="s">
@@ -1231,10 +1204,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="4"/>
@@ -1259,7 +1232,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="G26" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1279,12 +1252,12 @@
         <v>4</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>5</v>
@@ -1295,7 +1268,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="G28" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1303,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>6</v>
@@ -1311,15 +1284,15 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>6</v>
@@ -1327,7 +1300,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="G30" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1335,7 +1308,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>6</v>
@@ -1345,7 +1318,7 @@
       </c>
       <c r="E31" s="4"/>
       <c r="G31" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1353,7 +1326,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>6</v>
@@ -1361,15 +1334,15 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="G32" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="4" t="s">
@@ -1379,10 +1352,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="4"/>
@@ -1397,7 +1370,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1423,7 +1396,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>5</v>
@@ -1436,23 +1409,23 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>6</v>
@@ -1465,7 +1438,7 @@
         <v>8</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>6</v>
@@ -1475,7 +1448,7 @@
     </row>
     <row r="43" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>5</v>
@@ -1484,13 +1457,13 @@
         <v>6</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>5</v>
@@ -1499,13 +1472,13 @@
         <v>6</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>5</v>
@@ -1514,16 +1487,16 @@
         <v>6</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="4"/>
@@ -1534,7 +1507,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="4"/>
@@ -1545,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="4"/>
@@ -1556,7 +1529,7 @@
         <v>13</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="4"/>
@@ -1567,7 +1540,7 @@
         <v>14</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="4"/>
@@ -1575,10 +1548,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="6"/>
@@ -1586,23 +1559,23 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="6"/>
@@ -1610,10 +1583,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="6"/>
@@ -1624,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="4" t="s">
@@ -1637,7 +1610,7 @@
         <v>11</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="4"/>
@@ -1645,10 +1618,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="4" t="s">
@@ -1658,10 +1631,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="4"/>
@@ -1676,7 +1649,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1702,7 +1675,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>5</v>
@@ -1717,7 +1690,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>5</v>
@@ -1726,132 +1699,136 @@
         <v>6</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D65" s="4" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C66" s="7"/>
-      <c r="D66" s="4"/>
+      <c r="D66" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C67" s="7"/>
-      <c r="D67" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C68" s="7"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
+      <c r="A69" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>7</v>
+      <c r="A75" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="4"/>
+      <c r="C75" s="7"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -1859,10 +1836,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -1870,151 +1847,151 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>22</v>
+      <c r="A79" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D79" s="4"/>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="B81" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C86" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
+      <c r="E90" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="4"/>
@@ -2022,10 +1999,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="4"/>
@@ -2033,10 +2010,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="4"/>
@@ -2044,10 +2021,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="4"/>
@@ -2055,10 +2032,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="4"/>
@@ -2066,10 +2043,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="4"/>
@@ -2077,171 +2054,171 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="A98" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" s="7"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>22</v>
+      <c r="A99" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D99" s="4"/>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
+      <c r="B101" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="7"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C107" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="4"/>
-      <c r="E108" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
+      <c r="E111" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="4"/>
@@ -2249,10 +2226,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="4"/>
@@ -2260,10 +2237,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="4"/>
@@ -2271,10 +2248,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="4"/>
@@ -2282,10 +2259,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="4"/>
@@ -2293,107 +2270,105 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="A118" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" s="7"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>22</v>
+      <c r="A119" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D119" s="4"/>
       <c r="E119" s="4"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
+      <c r="B121" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B126" s="4"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B127" s="4"/>
+      <c r="C127" s="7"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>5</v>
@@ -2401,200 +2376,200 @@
       <c r="C128" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="D128" s="4"/>
       <c r="E128" s="4"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C129" s="7"/>
-      <c r="D129" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="E129" s="4"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C130" s="7"/>
+      <c r="D130" s="4"/>
       <c r="E130" s="4"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D131" s="4"/>
+      <c r="D131" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E131" s="4"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C132" s="7"/>
+      <c r="C132" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B138" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C138" s="23"/>
-      <c r="D138" s="23"/>
-      <c r="E138" s="24"/>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B139" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C139" s="23"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="24"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B140" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C139" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D139" s="12" t="s">
+      <c r="C140" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D140" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E140" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="G141" t="s">
-        <v>119</v>
+      <c r="E141" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D142" s="4"/>
-      <c r="E142" s="4" t="s">
-        <v>74</v>
+      <c r="E142" s="4"/>
+      <c r="G142" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
+      <c r="A143" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C144" s="7"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C145" s="8"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="C145" s="7"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
+      <c r="A146" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C146" s="8"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>6</v>
@@ -2604,32 +2579,38 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C148" s="7"/>
+      <c r="C148" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="16"/>
-      <c r="B150" s="16"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="19"/>
+      <c r="A150" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" s="7"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="16"/>
@@ -2639,144 +2620,138 @@
       <c r="E151" s="19"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B152" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C152" s="23"/>
-      <c r="D152" s="23"/>
-      <c r="E152" s="24"/>
+      <c r="A152" s="16"/>
+      <c r="B152" s="16"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="19"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B153" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="24"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B154" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C153" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D153" s="12" t="s">
+      <c r="C154" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D154" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="E154" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D155" s="4" t="s">
+      <c r="D155" s="4"/>
+      <c r="E155" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="E155" s="4"/>
-      <c r="G155" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C156" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D156" s="4" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="E156" s="4"/>
+      <c r="G156" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D157" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C157" s="7"/>
+      <c r="D157" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="E157" s="4"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C158" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C159" s="8"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
+      <c r="A159" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C159" s="7"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C160" s="8"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C160" s="7"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="C161" s="7"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>6</v>
@@ -2786,138 +2761,138 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C163" s="7"/>
+      <c r="C163" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B166" s="22"/>
-      <c r="C166" s="23"/>
-      <c r="D166" s="23"/>
-      <c r="E166" s="24"/>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" s="7"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B167" s="22"/>
+      <c r="C167" s="23"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="24"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B168" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C167" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D167" s="12" t="s">
+      <c r="C168" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D168" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="E168" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C169" s="4"/>
+      <c r="A169" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
-        <v>12</v>
+      <c r="A173" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C173" s="4"/>
       <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
+      <c r="E173" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>6</v>
@@ -2927,141 +2902,139 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C175" s="7"/>
+      <c r="C175" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B178" s="22"/>
-      <c r="C178" s="23"/>
-      <c r="D178" s="23"/>
-      <c r="E178" s="24"/>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C177" s="7"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B179" s="22"/>
+      <c r="C179" s="23"/>
+      <c r="D179" s="23"/>
+      <c r="E179" s="24"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B180" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C179" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D179" s="12" t="s">
+      <c r="C180" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D180" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="E180" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D181" s="4"/>
       <c r="E181" s="4" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D182" s="4"/>
       <c r="E182" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C183" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D183" s="6"/>
-      <c r="E183" s="6"/>
+      <c r="A183" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D184" s="4"/>
-      <c r="E184" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C185" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D185" s="6"/>
-      <c r="E185" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="C185" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>21</v>
@@ -3070,141 +3043,141 @@
         <v>6</v>
       </c>
       <c r="D186" s="6"/>
-      <c r="E186" s="6"/>
+      <c r="E186" s="6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D187" s="4"/>
-      <c r="E187" s="4"/>
+      <c r="A187" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C187" s="8"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D188" s="4"/>
-      <c r="E188" s="4"/>
+      <c r="A188" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C189" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C190" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
     </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C191" s="7"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+    </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B192" s="22"/>
-      <c r="C192" s="23"/>
-      <c r="D192" s="23"/>
-      <c r="E192" s="24"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+      <c r="A192" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C192" s="7"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B194" s="22"/>
+      <c r="C194" s="23"/>
+      <c r="D194" s="23"/>
+      <c r="E194" s="24"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B195" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C193" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D193" s="12" t="s">
+      <c r="C195" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D195" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E193" s="2" t="s">
+      <c r="E195" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D194" s="4"/>
-      <c r="E194" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D195" s="4"/>
-      <c r="E195" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
+      <c r="A196" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>23</v>
+      <c r="A197" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D197" s="4"/>
-      <c r="E197" s="4"/>
+      <c r="E197" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>22</v>
@@ -3213,131 +3186,139 @@
         <v>6</v>
       </c>
       <c r="D198" s="6"/>
-      <c r="E198" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="E198" s="6"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C199" s="8"/>
-      <c r="D199" s="6"/>
-      <c r="E199" s="6"/>
+      <c r="C199" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D200" s="4"/>
-      <c r="E200" s="4"/>
+      <c r="A200" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="6"/>
+      <c r="E200" s="6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D201" s="4"/>
-      <c r="E201" s="4"/>
+      <c r="A201" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C201" s="8"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C202" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C203" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
     </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C204" s="7"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+    </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B205" s="21"/>
-      <c r="C205" s="21"/>
-      <c r="D205" s="21"/>
-      <c r="E205" s="21"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
+      <c r="A205" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C205" s="7"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B207" s="21"/>
+      <c r="C207" s="21"/>
+      <c r="D207" s="21"/>
+      <c r="E207" s="21"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B208" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C206" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D206" s="1" t="s">
+      <c r="C208" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E208" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D207" s="4"/>
-      <c r="E207" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
-      <c r="E208" s="4"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D209" s="4"/>
-      <c r="E209" s="4"/>
+      <c r="E209" s="4" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -3346,16 +3327,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B211" s="4"/>
-      <c r="C211" s="7"/>
+      <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="6" t="s">
-        <v>151</v>
+      <c r="A212" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -3364,149 +3345,149 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B213" s="4"/>
+      <c r="C213" s="7"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C214" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="A214" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C215" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C216" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="5"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
+      <c r="A217" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C217" s="7"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C218" s="7"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B219" s="21"/>
-      <c r="C219" s="21"/>
-      <c r="D219" s="21"/>
-      <c r="E219" s="21"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
+      <c r="A219" s="5"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B221" s="21"/>
+      <c r="C221" s="21"/>
+      <c r="D221" s="21"/>
+      <c r="E221" s="21"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B222" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C220" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D220" s="1" t="s">
+      <c r="C222" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E220" s="2" t="s">
+      <c r="E222" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D221" s="4"/>
-      <c r="E221" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E222" s="4"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D223" s="4"/>
-      <c r="E223" s="4"/>
+      <c r="E223" s="4" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E224" s="4"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
+        <v>137</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -3515,7 +3496,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -3524,32 +3505,28 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C228" s="7"/>
+        <v>139</v>
+      </c>
+      <c r="B228" s="4"/>
+      <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C229" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C230" s="7"/>
       <c r="D230" s="4"/>
@@ -3557,10 +3534,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C231" s="7"/>
       <c r="D231" s="4"/>
@@ -3568,10 +3545,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C232" s="7"/>
       <c r="D232" s="4"/>
@@ -3579,10 +3556,10 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C233" s="7"/>
       <c r="D233" s="4"/>
@@ -3590,10 +3567,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C234" s="7"/>
       <c r="D234" s="4"/>
@@ -3601,10 +3578,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C235" s="7"/>
       <c r="D235" s="4"/>
@@ -3612,10 +3589,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C236" s="7"/>
       <c r="D236" s="4"/>
@@ -3623,10 +3600,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C237" s="7"/>
       <c r="D237" s="4"/>
@@ -3634,79 +3611,101 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B238" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="C238" s="7"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B239" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="C239" s="7"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B240" s="4"/>
+      <c r="C240" s="7"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B241" s="4"/>
+      <c r="C241" s="7"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C242" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C243" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
     </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C244" s="7"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245" s="7"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B205:E205"/>
-    <mergeCell ref="B138:E138"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="B166:E166"/>
-    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B207:E207"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B194:E194"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B153:E153"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
